--- a/BackTest/2020-01-12 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-12 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11506,7 +11506,7 @@
         <v>-31196.88719999999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-27458.05709999999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-30634.53509999999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-33181.63419999999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-30682.55249999999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-26464.03119999999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-30056.12579999999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-30056.12579999999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-32369.02519999999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-28663.84999999999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>30152.13607563999</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>16926.84387563999</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>18216.06517563999</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>21971.07807563999</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>21860.58307563999</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>21860.58307563999</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>22735.01597563999</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>21131.57087563999</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>21907.40207563999</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>22377.88911795999</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>23871.34031795999</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>27253.16511795999</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>27374.97781795999</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>28302.58641795999</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>27140.23571795999</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>37085.33361795999</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>33630.39341795999</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>32425.42051795999</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>28375.64861795999</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>20144.30551795999</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>16857.98741795999</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>13913.27121795999</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>13913.27121795999</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>10170.37701795999</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>12447.64391795999</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>15843.43393294999</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>15843.43393294999</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>12518.16283294999</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>9352.007232949991</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>9352.007232949991</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>6607.218832949991</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>10440.92233294999</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>6578.174632949991</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>6578.174632949991</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>3159.604932949991</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-1890.737467050009</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>2153.28693294999</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>2153.28693294999</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-367.0911670500095</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>1620.921432949991</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>1620.921432949991</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>1620.921432949991</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-1054.080267050009</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>1927.406532949991</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-2042.375967050009</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-5037.394167050009</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-4856.446067050008</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-8395.983467050009</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-5357.50166705001</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-8311.94866705001</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-5170.53976705001</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-2492.29856705001</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>10168.55863294999</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>12495.19683294999</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -33616,10 +33616,14 @@
         <v>-85587.70359561003</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>234.4</v>
+      </c>
       <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
@@ -33654,2285 +33658,2045 @@
       <c r="I1008" t="n">
         <v>234.5</v>
       </c>
-      <c r="J1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>234.4</v>
+      </c>
       <c r="K1008" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>234.9</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>235.7</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>235.7</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>35485.0973</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>-48926.93329561003</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>234.9</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>235.1</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>234.9</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>3898.915</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>-52825.84829561003</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>1983.5059</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>-50842.34239561003</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>235.7</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>2952.4813</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>-47889.86109561003</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>235.3</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>235.3</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>2248.3624</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>-50138.22349561003</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>235</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>235</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>435.0312</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>-50573.25469561003</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>235</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>235</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>1547.3822</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>-49025.87249561003</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>-49023.67249561003</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>2829.8536</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>-51853.52609561003</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>774.3727</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>-51079.15339561003</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>237</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>236</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>237</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>235.9</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>1227.9082</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>-52307.06159561003</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>236</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>426.9859</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>-52307.06159561003</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>4366.4305</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>-47940.63109561003</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>236</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>1183.0778</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>-49123.70889561003</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>791.6641</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>-48332.04479561003</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>438.9199</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>-47893.12489561002</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>1816.628</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>-49709.75289561002</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>1033.7677</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>-48675.98519561002</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>421.212</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>-48254.77319561003</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>481.6774</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>-47773.09579561002</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>257.4689</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>-48030.56469561002</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>1201.9994</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>-49232.56409561003</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>2459.0601</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>-51691.62419561003</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>3584.1114</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>-55275.73559561003</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>4475.6377</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>-59751.37329561003</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>2409.6407</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>-59751.37329561003</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>1343.5773</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>-58407.79599561003</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>645.2106</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>-58407.79599561003</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
+      <c r="L1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>2013.6148</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>-58407.79599561003</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
+      <c r="L1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>2275.4767</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>-60683.27269561003</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1038" t="inlineStr"/>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr"/>
+      <c r="L1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>1257.705</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>-59425.56769561003</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1039" t="inlineStr"/>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr"/>
+      <c r="L1039" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>2685.6894</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>-62111.25709561003</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
+      <c r="J1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr"/>
+      <c r="L1040" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>3585.817</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>-58525.44009561003</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr"/>
+      <c r="L1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>2141.0267</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>-60666.46679561003</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
+      <c r="J1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr"/>
+      <c r="L1042" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>1502.6426</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>-59163.82419561003</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
+      <c r="J1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr"/>
+      <c r="L1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>1690.4309</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>-60854.25509561003</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
+      <c r="L1044" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>2813.804</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>-58040.45109561003</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
+      <c r="J1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr"/>
+      <c r="L1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>1696.3133</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>-59736.76439561003</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
+      <c r="J1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr"/>
+      <c r="L1046" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>1662.8186</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>-59736.76439561003</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
+      <c r="J1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr"/>
+      <c r="L1047" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>2906.7571</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>-62643.52149561003</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
+      <c r="J1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr"/>
+      <c r="L1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>999.0997</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>-62643.52149561003</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
+      <c r="J1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr"/>
+      <c r="L1049" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>1321.3889</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>-62643.52149561003</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
+      <c r="J1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr"/>
+      <c r="L1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>2626.1263</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>-62643.52149561003</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
+      <c r="J1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr"/>
+      <c r="L1051" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>236</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>235.9</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>2001.5629</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>-62643.52149561003</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
+      <c r="J1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr"/>
+      <c r="L1052" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>236</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>684.9272</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>-62643.52149561003</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
+      <c r="J1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr"/>
+      <c r="L1053" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>236</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>236</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>2389.6825</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>-65033.20399561003</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
+      <c r="J1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr"/>
+      <c r="L1054" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>236</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>2162.4322</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>-65033.20399561003</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
+      <c r="J1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr"/>
+      <c r="L1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>236</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>236</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>236</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>2341.0007</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>-65033.20399561003</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
+      <c r="J1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr"/>
+      <c r="L1056" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>236</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>236</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>236</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>1675.8283</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>-65033.20399561003</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
+      <c r="J1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr"/>
+      <c r="L1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>236</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>236</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>236</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>236</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>1401.4884</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>-65033.20399561003</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1058" t="inlineStr"/>
+      <c r="J1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr"/>
+      <c r="L1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>1541.4767</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>-63491.72729561004</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1059" t="inlineStr"/>
+      <c r="J1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr"/>
+      <c r="L1059" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>485.601</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>-63491.72729561004</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1060" t="inlineStr"/>
+      <c r="J1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr"/>
+      <c r="L1060" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>405.8518</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>-63491.72729561004</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1061" t="inlineStr"/>
+      <c r="J1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr"/>
+      <c r="L1061" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>1596.9722</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>-63491.72729561004</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1062" t="inlineStr"/>
+      <c r="J1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr"/>
+      <c r="L1062" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>2894.2162</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>-63491.72729561004</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1063" t="inlineStr"/>
+      <c r="J1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr"/>
+      <c r="L1063" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>351.256</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>-63140.47129561003</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1064" t="inlineStr"/>
+      <c r="J1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr"/>
+      <c r="L1064" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>881.4450000000001</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>-63140.47129561003</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
+      <c r="J1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr"/>
+      <c r="L1065" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>1949.1688</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>-63140.47129561003</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
+      <c r="J1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr"/>
+      <c r="L1066" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>1881.398</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>-63140.47129561003</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
+      <c r="J1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr"/>
+      <c r="L1067" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>2153.7774</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>-63140.47129561003</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="K1068" t="inlineStr"/>
+      <c r="L1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>389.6113</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>-63530.08259561003</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="K1069" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>35485.0973</v>
-      </c>
-      <c r="G1009" t="n">
-        <v>-48926.93329561003</v>
-      </c>
-      <c r="H1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1009" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>235.4</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>3898.915</v>
-      </c>
-      <c r="G1010" t="n">
-        <v>-52825.84829561003</v>
-      </c>
-      <c r="H1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1010" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>1983.5059</v>
-      </c>
-      <c r="G1011" t="n">
-        <v>-50842.34239561003</v>
-      </c>
-      <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1011" t="inlineStr"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>235.4</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>2952.4813</v>
-      </c>
-      <c r="G1012" t="n">
-        <v>-47889.86109561003</v>
-      </c>
-      <c r="H1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1012" t="inlineStr"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="D1013" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="E1013" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="F1013" t="n">
-        <v>2248.3624</v>
-      </c>
-      <c r="G1013" t="n">
-        <v>-50138.22349561003</v>
-      </c>
-      <c r="H1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1013" t="inlineStr"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="1" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>235</v>
-      </c>
-      <c r="D1014" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="E1014" t="n">
-        <v>235</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>435.0312</v>
-      </c>
-      <c r="G1014" t="n">
-        <v>-50573.25469561003</v>
-      </c>
-      <c r="H1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1014" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1014" t="inlineStr"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="1" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>235</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="D1015" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1015" t="n">
-        <v>235</v>
-      </c>
-      <c r="F1015" t="n">
-        <v>1547.3822</v>
-      </c>
-      <c r="G1015" t="n">
-        <v>-49025.87249561003</v>
-      </c>
-      <c r="H1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1015" t="n">
-        <v>235</v>
-      </c>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1015" t="inlineStr"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="D1016" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="E1016" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G1016" t="n">
-        <v>-49023.67249561003</v>
-      </c>
-      <c r="H1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1016" t="inlineStr"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="D1017" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="E1017" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>2829.8536</v>
-      </c>
-      <c r="G1017" t="n">
-        <v>-51853.52609561003</v>
-      </c>
-      <c r="H1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1017" t="inlineStr"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1018" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1018" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>774.3727</v>
-      </c>
-      <c r="G1018" t="n">
-        <v>-51079.15339561003</v>
-      </c>
-      <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1018" t="inlineStr"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>237</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>236</v>
-      </c>
-      <c r="D1019" t="n">
-        <v>237</v>
-      </c>
-      <c r="E1019" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>1227.9082</v>
-      </c>
-      <c r="G1019" t="n">
-        <v>-52307.06159561003</v>
-      </c>
-      <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1019" t="inlineStr"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>236</v>
-      </c>
-      <c r="D1020" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="E1020" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1020" t="n">
-        <v>426.9859</v>
-      </c>
-      <c r="G1020" t="n">
-        <v>-52307.06159561003</v>
-      </c>
-      <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1020" t="inlineStr"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1021" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="E1021" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1021" t="n">
-        <v>4366.4305</v>
-      </c>
-      <c r="G1021" t="n">
-        <v>-47940.63109561003</v>
-      </c>
-      <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>236</v>
-      </c>
-      <c r="D1022" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1022" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1022" t="n">
-        <v>1183.0778</v>
-      </c>
-      <c r="G1022" t="n">
-        <v>-49123.70889561003</v>
-      </c>
-      <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1022" t="inlineStr"/>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1023" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="E1023" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>791.6641</v>
-      </c>
-      <c r="G1023" t="n">
-        <v>-48332.04479561003</v>
-      </c>
-      <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1023" t="inlineStr"/>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="D1024" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="E1024" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="F1024" t="n">
-        <v>438.9199</v>
-      </c>
-      <c r="G1024" t="n">
-        <v>-47893.12489561002</v>
-      </c>
-      <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1024" t="inlineStr"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1025" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="E1025" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1025" t="n">
-        <v>1816.628</v>
-      </c>
-      <c r="G1025" t="n">
-        <v>-49709.75289561002</v>
-      </c>
-      <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1025" t="inlineStr"/>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="D1026" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="E1026" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="F1026" t="n">
-        <v>1033.7677</v>
-      </c>
-      <c r="G1026" t="n">
-        <v>-48675.98519561002</v>
-      </c>
-      <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1026" t="inlineStr"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="D1027" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="E1027" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="F1027" t="n">
-        <v>421.212</v>
-      </c>
-      <c r="G1027" t="n">
-        <v>-48254.77319561003</v>
-      </c>
-      <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1027" t="inlineStr"/>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="D1028" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="E1028" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="F1028" t="n">
-        <v>481.6774</v>
-      </c>
-      <c r="G1028" t="n">
-        <v>-47773.09579561002</v>
-      </c>
-      <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1028" t="inlineStr"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="D1029" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="E1029" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>257.4689</v>
-      </c>
-      <c r="G1029" t="n">
-        <v>-48030.56469561002</v>
-      </c>
-      <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1029" t="inlineStr"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="D1030" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="F1030" t="n">
-        <v>1201.9994</v>
-      </c>
-      <c r="G1030" t="n">
-        <v>-49232.56409561003</v>
-      </c>
-      <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="1" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1031" t="n">
-        <v>2459.0601</v>
-      </c>
-      <c r="G1031" t="n">
-        <v>-51691.62419561003</v>
-      </c>
-      <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1031" t="inlineStr"/>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1032" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1032" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1032" t="n">
-        <v>3584.1114</v>
-      </c>
-      <c r="G1032" t="n">
-        <v>-55275.73559561003</v>
-      </c>
-      <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1033" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="E1033" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1033" t="n">
-        <v>4475.6377</v>
-      </c>
-      <c r="G1033" t="n">
-        <v>-59751.37329561003</v>
-      </c>
-      <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1034" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1034" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1034" t="n">
-        <v>2409.6407</v>
-      </c>
-      <c r="G1034" t="n">
-        <v>-59751.37329561003</v>
-      </c>
-      <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1034" t="inlineStr"/>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1035" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1035" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1035" t="n">
-        <v>1343.5773</v>
-      </c>
-      <c r="G1035" t="n">
-        <v>-58407.79599561003</v>
-      </c>
-      <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1035" t="inlineStr"/>
-    </row>
-    <row r="1036">
-      <c r="A1036" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1036" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1036" t="n">
-        <v>645.2106</v>
-      </c>
-      <c r="G1036" t="n">
-        <v>-58407.79599561003</v>
-      </c>
-      <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1036" t="inlineStr"/>
-    </row>
-    <row r="1037">
-      <c r="A1037" s="1" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1037" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1037" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1037" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1037" t="n">
-        <v>2013.6148</v>
-      </c>
-      <c r="G1037" t="n">
-        <v>-58407.79599561003</v>
-      </c>
-      <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="C1038" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1038" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1038" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1038" t="n">
-        <v>2275.4767</v>
-      </c>
-      <c r="G1038" t="n">
-        <v>-60683.27269561003</v>
-      </c>
-      <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1038" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1038" t="inlineStr"/>
-    </row>
-    <row r="1039">
-      <c r="A1039" s="1" t="n">
-        <v>1037</v>
-      </c>
-      <c r="B1039" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1039" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="D1039" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="E1039" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1039" t="n">
-        <v>1257.705</v>
-      </c>
-      <c r="G1039" t="n">
-        <v>-59425.56769561003</v>
-      </c>
-      <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1039" t="inlineStr"/>
-    </row>
-    <row r="1040">
-      <c r="A1040" s="1" t="n">
-        <v>1038</v>
-      </c>
-      <c r="B1040" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1040" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1040" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1040" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1040" t="n">
-        <v>2685.6894</v>
-      </c>
-      <c r="G1040" t="n">
-        <v>-62111.25709561003</v>
-      </c>
-      <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1040" t="inlineStr"/>
-    </row>
-    <row r="1041">
-      <c r="A1041" s="1" t="n">
-        <v>1039</v>
-      </c>
-      <c r="B1041" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1041" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="D1041" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1041" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1041" t="n">
-        <v>3585.817</v>
-      </c>
-      <c r="G1041" t="n">
-        <v>-58525.44009561003</v>
-      </c>
-      <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1041" t="inlineStr"/>
-    </row>
-    <row r="1042">
-      <c r="A1042" s="1" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B1042" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="C1042" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1042" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1042" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1042" t="n">
-        <v>2141.0267</v>
-      </c>
-      <c r="G1042" t="n">
-        <v>-60666.46679561003</v>
-      </c>
-      <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1042" t="inlineStr"/>
-    </row>
-    <row r="1043">
-      <c r="A1043" s="1" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B1043" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1043" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="D1043" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1043" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1043" t="n">
-        <v>1502.6426</v>
-      </c>
-      <c r="G1043" t="n">
-        <v>-59163.82419561003</v>
-      </c>
-      <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1043" t="inlineStr"/>
-    </row>
-    <row r="1044">
-      <c r="A1044" s="1" t="n">
-        <v>1042</v>
-      </c>
-      <c r="B1044" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1044" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1044" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1044" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1044" t="n">
-        <v>1690.4309</v>
-      </c>
-      <c r="G1044" t="n">
-        <v>-60854.25509561003</v>
-      </c>
-      <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" s="1" t="n">
-        <v>1043</v>
-      </c>
-      <c r="B1045" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1045" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="D1045" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1045" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1045" t="n">
-        <v>2813.804</v>
-      </c>
-      <c r="G1045" t="n">
-        <v>-58040.45109561003</v>
-      </c>
-      <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1045" t="inlineStr"/>
-    </row>
-    <row r="1046">
-      <c r="A1046" s="1" t="n">
-        <v>1044</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1046" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1046" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1046" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1046" t="n">
-        <v>1696.3133</v>
-      </c>
-      <c r="G1046" t="n">
-        <v>-59736.76439561003</v>
-      </c>
-      <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1046" t="inlineStr"/>
-    </row>
-    <row r="1047">
-      <c r="A1047" s="1" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B1047" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1047" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1047" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1047" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1047" t="n">
-        <v>1662.8186</v>
-      </c>
-      <c r="G1047" t="n">
-        <v>-59736.76439561003</v>
-      </c>
-      <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1047" t="inlineStr"/>
-    </row>
-    <row r="1048">
-      <c r="A1048" s="1" t="n">
-        <v>1046</v>
-      </c>
-      <c r="B1048" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1048" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1048" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1048" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1048" t="n">
-        <v>2906.7571</v>
-      </c>
-      <c r="G1048" t="n">
-        <v>-62643.52149561003</v>
-      </c>
-      <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1048" t="inlineStr"/>
-    </row>
-    <row r="1049">
-      <c r="A1049" s="1" t="n">
-        <v>1047</v>
-      </c>
-      <c r="B1049" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1049" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1049" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1049" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1049" t="n">
-        <v>999.0997</v>
-      </c>
-      <c r="G1049" t="n">
-        <v>-62643.52149561003</v>
-      </c>
-      <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1049" t="inlineStr"/>
-    </row>
-    <row r="1050">
-      <c r="A1050" s="1" t="n">
-        <v>1048</v>
-      </c>
-      <c r="B1050" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1050" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1050" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1050" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1050" t="n">
-        <v>1321.3889</v>
-      </c>
-      <c r="G1050" t="n">
-        <v>-62643.52149561003</v>
-      </c>
-      <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1050" t="inlineStr"/>
-    </row>
-    <row r="1051">
-      <c r="A1051" s="1" t="n">
-        <v>1049</v>
-      </c>
-      <c r="B1051" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1051" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1051" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="E1051" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1051" t="n">
-        <v>2626.1263</v>
-      </c>
-      <c r="G1051" t="n">
-        <v>-62643.52149561003</v>
-      </c>
-      <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1051" t="inlineStr"/>
-    </row>
-    <row r="1052">
-      <c r="A1052" s="1" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B1052" t="n">
-        <v>236</v>
-      </c>
-      <c r="C1052" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1052" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1052" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="F1052" t="n">
-        <v>2001.5629</v>
-      </c>
-      <c r="G1052" t="n">
-        <v>-62643.52149561003</v>
-      </c>
-      <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1052" t="inlineStr"/>
-    </row>
-    <row r="1053">
-      <c r="A1053" s="1" t="n">
-        <v>1051</v>
-      </c>
-      <c r="B1053" t="n">
-        <v>236</v>
-      </c>
-      <c r="C1053" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1053" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1053" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1053" t="n">
-        <v>684.9272</v>
-      </c>
-      <c r="G1053" t="n">
-        <v>-62643.52149561003</v>
-      </c>
-      <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1053" t="inlineStr"/>
-    </row>
-    <row r="1054">
-      <c r="A1054" s="1" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B1054" t="n">
-        <v>236</v>
-      </c>
-      <c r="C1054" t="n">
-        <v>236</v>
-      </c>
-      <c r="D1054" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="E1054" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1054" t="n">
-        <v>2389.6825</v>
-      </c>
-      <c r="G1054" t="n">
-        <v>-65033.20399561003</v>
-      </c>
-      <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1054" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1054" t="inlineStr"/>
-    </row>
-    <row r="1055">
-      <c r="A1055" s="1" t="n">
-        <v>1053</v>
-      </c>
-      <c r="B1055" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1055" t="n">
-        <v>236</v>
-      </c>
-      <c r="D1055" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1055" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1055" t="n">
-        <v>2162.4322</v>
-      </c>
-      <c r="G1055" t="n">
-        <v>-65033.20399561003</v>
-      </c>
-      <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1055" t="inlineStr"/>
-    </row>
-    <row r="1056">
-      <c r="A1056" s="1" t="n">
-        <v>1054</v>
-      </c>
-      <c r="B1056" t="n">
-        <v>236</v>
-      </c>
-      <c r="C1056" t="n">
-        <v>236</v>
-      </c>
-      <c r="D1056" t="n">
-        <v>236</v>
-      </c>
-      <c r="E1056" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1056" t="n">
-        <v>2341.0007</v>
-      </c>
-      <c r="G1056" t="n">
-        <v>-65033.20399561003</v>
-      </c>
-      <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1056" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1056" t="inlineStr"/>
-    </row>
-    <row r="1057">
-      <c r="A1057" s="1" t="n">
-        <v>1055</v>
-      </c>
-      <c r="B1057" t="n">
-        <v>236</v>
-      </c>
-      <c r="C1057" t="n">
-        <v>236</v>
-      </c>
-      <c r="D1057" t="n">
-        <v>236</v>
-      </c>
-      <c r="E1057" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1057" t="n">
-        <v>1675.8283</v>
-      </c>
-      <c r="G1057" t="n">
-        <v>-65033.20399561003</v>
-      </c>
-      <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1057" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1057" t="inlineStr"/>
-    </row>
-    <row r="1058">
-      <c r="A1058" s="1" t="n">
-        <v>1056</v>
-      </c>
-      <c r="B1058" t="n">
-        <v>236</v>
-      </c>
-      <c r="C1058" t="n">
-        <v>236</v>
-      </c>
-      <c r="D1058" t="n">
-        <v>236</v>
-      </c>
-      <c r="E1058" t="n">
-        <v>236</v>
-      </c>
-      <c r="F1058" t="n">
-        <v>1401.4884</v>
-      </c>
-      <c r="G1058" t="n">
-        <v>-65033.20399561003</v>
-      </c>
-      <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1058" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1058" t="inlineStr"/>
-    </row>
-    <row r="1059">
-      <c r="A1059" s="1" t="n">
-        <v>1057</v>
-      </c>
-      <c r="B1059" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1059" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1059" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1059" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1059" t="n">
-        <v>1541.4767</v>
-      </c>
-      <c r="G1059" t="n">
-        <v>-63491.72729561004</v>
-      </c>
-      <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1059" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1059" t="inlineStr"/>
-    </row>
-    <row r="1060">
-      <c r="A1060" s="1" t="n">
-        <v>1058</v>
-      </c>
-      <c r="B1060" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1060" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1060" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1060" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1060" t="n">
-        <v>485.601</v>
-      </c>
-      <c r="G1060" t="n">
-        <v>-63491.72729561004</v>
-      </c>
-      <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1060" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1060" t="inlineStr"/>
-    </row>
-    <row r="1061">
-      <c r="A1061" s="1" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B1061" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1061" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1061" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1061" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1061" t="n">
-        <v>405.8518</v>
-      </c>
-      <c r="G1061" t="n">
-        <v>-63491.72729561004</v>
-      </c>
-      <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1061" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1061" t="inlineStr"/>
-    </row>
-    <row r="1062">
-      <c r="A1062" s="1" t="n">
-        <v>1060</v>
-      </c>
-      <c r="B1062" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1062" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1062" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1062" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1062" t="n">
-        <v>1596.9722</v>
-      </c>
-      <c r="G1062" t="n">
-        <v>-63491.72729561004</v>
-      </c>
-      <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1062" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1062" t="inlineStr"/>
-    </row>
-    <row r="1063">
-      <c r="A1063" s="1" t="n">
-        <v>1061</v>
-      </c>
-      <c r="B1063" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="C1063" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1063" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="E1063" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1063" t="n">
-        <v>2894.2162</v>
-      </c>
-      <c r="G1063" t="n">
-        <v>-63491.72729561004</v>
-      </c>
-      <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1063" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1063" t="inlineStr"/>
-    </row>
-    <row r="1064">
-      <c r="A1064" s="1" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B1064" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1064" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1064" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1064" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1064" t="n">
-        <v>351.256</v>
-      </c>
-      <c r="G1064" t="n">
-        <v>-63140.47129561003</v>
-      </c>
-      <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1064" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1064" t="inlineStr"/>
-    </row>
-    <row r="1065">
-      <c r="A1065" s="1" t="n">
-        <v>1063</v>
-      </c>
-      <c r="B1065" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1065" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1065" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1065" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1065" t="n">
-        <v>881.4450000000001</v>
-      </c>
-      <c r="G1065" t="n">
-        <v>-63140.47129561003</v>
-      </c>
-      <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1065" t="inlineStr"/>
-    </row>
-    <row r="1066">
-      <c r="A1066" s="1" t="n">
-        <v>1064</v>
-      </c>
-      <c r="B1066" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="C1066" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1066" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="E1066" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1066" t="n">
-        <v>1949.1688</v>
-      </c>
-      <c r="G1066" t="n">
-        <v>-63140.47129561003</v>
-      </c>
-      <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1066" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1066" t="inlineStr"/>
-    </row>
-    <row r="1067">
-      <c r="A1067" s="1" t="n">
-        <v>1065</v>
-      </c>
-      <c r="B1067" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1067" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1067" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1067" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1067" t="n">
-        <v>1881.398</v>
-      </c>
-      <c r="G1067" t="n">
-        <v>-63140.47129561003</v>
-      </c>
-      <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1067" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1067" t="inlineStr"/>
-    </row>
-    <row r="1068">
-      <c r="A1068" s="1" t="n">
-        <v>1066</v>
-      </c>
-      <c r="B1068" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1068" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="D1068" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1068" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="F1068" t="n">
-        <v>2153.7774</v>
-      </c>
-      <c r="G1068" t="n">
-        <v>-63140.47129561003</v>
-      </c>
-      <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1068" t="inlineStr"/>
-    </row>
-    <row r="1069">
-      <c r="A1069" s="1" t="n">
-        <v>1067</v>
-      </c>
-      <c r="B1069" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="C1069" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="D1069" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="E1069" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="F1069" t="n">
-        <v>389.6113</v>
-      </c>
-      <c r="G1069" t="n">
-        <v>-63530.08259561003</v>
-      </c>
-      <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35961,10 +35725,14 @@
         <v>-62610.48249561003</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35998,10 +35766,14 @@
         <v>-62610.48249561003</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36035,10 +35807,14 @@
         <v>-62610.48249561003</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36072,10 +35848,14 @@
         <v>-62610.48249561003</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36109,10 +35889,14 @@
         <v>-62610.48249561003</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36146,10 +35930,14 @@
         <v>-63260.30969561003</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36183,10 +35971,14 @@
         <v>-61199.30969561003</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36220,10 +36012,14 @@
         <v>-61199.30969561003</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36257,10 +36053,14 @@
         <v>-61173.16429561003</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36294,10 +36094,14 @@
         <v>-61173.16429561003</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36331,10 +36135,14 @@
         <v>-62385.49809561003</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36368,10 +36176,14 @@
         <v>-62385.49809561003</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36405,10 +36217,14 @@
         <v>-62524.08809561002</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36442,10 +36258,14 @@
         <v>-62431.90269561002</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36479,10 +36299,14 @@
         <v>-62431.90269561002</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36516,10 +36340,14 @@
         <v>-62000.89049561002</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36553,10 +36381,14 @@
         <v>-63207.35359561002</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36590,10 +36422,14 @@
         <v>-58324.76949561002</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36630,7 +36466,9 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36667,7 +36505,9 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36704,7 +36544,9 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36741,7 +36583,9 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36778,7 +36622,9 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36815,7 +36661,9 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36852,7 +36700,9 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36889,7 +36739,9 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36926,7 +36778,9 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36963,7 +36817,9 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37000,7 +36856,9 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37037,7 +36895,9 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37074,7 +36934,9 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37111,7 +36973,9 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37148,7 +37012,9 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37185,7 +37051,9 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37222,7 +37090,9 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37259,7 +37129,9 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37296,7 +37168,9 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37333,7 +37207,9 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37370,7 +37246,9 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37407,7 +37285,9 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37444,7 +37324,9 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37481,7 +37363,9 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37518,7 +37402,9 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37555,7 +37441,9 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37592,7 +37480,9 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37629,7 +37519,9 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37666,7 +37558,9 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37703,7 +37597,9 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37740,7 +37636,9 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37777,7 +37675,9 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37814,7 +37714,9 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
+      <c r="J1120" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37851,7 +37753,9 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37888,7 +37792,9 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37925,7 +37831,9 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37962,7 +37870,9 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37999,7 +37909,9 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38036,7 +37948,9 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38073,7 +37987,9 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38110,7 +38026,9 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38147,7 +38065,9 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38184,7 +38104,9 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38221,7 +38143,9 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
+      <c r="J1131" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38258,7 +38182,9 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
+      <c r="J1132" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38295,7 +38221,9 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
+      <c r="J1133" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38332,7 +38260,9 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38369,7 +38299,9 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38406,7 +38338,9 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38443,7 +38377,9 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38480,7 +38416,9 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38517,7 +38455,9 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38554,7 +38494,9 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38591,7 +38533,9 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38628,7 +38572,9 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38665,7 +38611,9 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38702,7 +38650,9 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38739,7 +38689,9 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38776,7 +38728,9 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38813,7 +38767,9 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38850,7 +38806,9 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38887,7 +38845,9 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
+      <c r="J1149" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38924,7 +38884,9 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
+      <c r="J1150" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38961,7 +38923,9 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38998,7 +38962,9 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39035,7 +39001,9 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
+      <c r="J1153" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39072,7 +39040,9 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39109,7 +39079,9 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39146,7 +39118,9 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39183,7 +39157,9 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
+      <c r="J1157" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39220,7 +39196,9 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39257,7 +39235,9 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39294,7 +39274,9 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
+      <c r="J1160" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39331,7 +39313,9 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
+      <c r="J1161" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39368,7 +39352,9 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39405,7 +39391,9 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39442,7 +39430,9 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39479,7 +39469,9 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
+      <c r="J1165" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39516,7 +39508,9 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
+      <c r="J1166" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39553,7 +39547,9 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
+      <c r="J1167" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39590,7 +39586,9 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
+      <c r="J1168" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39627,7 +39625,9 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
+      <c r="J1169" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39664,7 +39664,9 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
+      <c r="J1170" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39701,7 +39703,9 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39738,7 +39742,9 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39775,7 +39781,9 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39812,7 +39820,9 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39849,7 +39859,9 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39886,7 +39898,9 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39923,7 +39937,9 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39957,10 +39973,14 @@
         <v>-107372.89369561</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39994,10 +40014,14 @@
         <v>-111557.86289561</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40031,10 +40055,14 @@
         <v>-116102.07819561</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40068,10 +40096,14 @@
         <v>-115860.10579561</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40105,10 +40137,14 @@
         <v>-115695.92579561</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>237.8</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40142,10 +40178,14 @@
         <v>-115140.5676956101</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>238.2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40182,7 +40222,9 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
+      <c r="J1184" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40219,7 +40261,9 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
+      <c r="J1185" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40256,7 +40300,9 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
+      <c r="J1186" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40293,7 +40339,9 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
+      <c r="J1187" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40330,7 +40378,9 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
+      <c r="J1188" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40367,7 +40417,9 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
+      <c r="J1189" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40401,10 +40453,14 @@
         <v>-112100.0977956101</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40441,7 +40497,9 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
+      <c r="J1191" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40478,7 +40536,9 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="inlineStr"/>
+      <c r="J1192" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40515,7 +40575,9 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="inlineStr"/>
+      <c r="J1193" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40552,7 +40614,9 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="inlineStr"/>
+      <c r="J1194" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40589,7 +40653,9 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
+      <c r="J1195" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40626,7 +40692,9 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
+      <c r="J1196" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40663,7 +40731,9 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
+      <c r="J1197" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40700,7 +40770,9 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
+      <c r="J1198" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40737,7 +40809,9 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
+      <c r="J1199" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40774,7 +40848,9 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
+      <c r="J1200" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40811,7 +40887,9 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
+      <c r="J1201" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40848,7 +40926,9 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
+      <c r="J1202" t="n">
+        <v>236.2</v>
+      </c>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40860,6 +40940,6 @@
       <c r="M1202" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-12 BackTest LUNA.xlsx
@@ -11506,7 +11506,7 @@
         <v>-31196.88719999999</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-27458.05709999999</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-30634.53509999999</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-33181.63419999999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-30682.55249999999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-26464.03119999999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-30056.12579999999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-30056.12579999999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-32369.02519999999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-28663.84999999999</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>30152.13607563999</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>16926.84387563999</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>18216.06517563999</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>21971.07807563999</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>21860.58307563999</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>21860.58307563999</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>22735.01597563999</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>21131.57087563999</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>21907.40207563999</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>22377.88911795999</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>23871.34031795999</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>30180.91491795999</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>26885.45241795999</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>25270.83091795999</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>27253.16511795999</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>27374.97781795999</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>28302.58641795999</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>23347.07091795999</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>27140.23571795999</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>37085.33361795999</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>33630.39341795999</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>32425.42051795999</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>28375.64861795999</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>20144.30551795999</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>16857.98741795999</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>13913.27121795999</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>13913.27121795999</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>10170.37701795999</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>12447.64391795999</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>15843.43393294999</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>15843.43393294999</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>12518.16283294999</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>9352.007232949991</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>9352.007232949991</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>6607.218832949991</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>10440.92233294999</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>6578.174632949991</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>6578.174632949991</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>3159.604932949991</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-1890.737467050009</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>2153.28693294999</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>2153.28693294999</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>1620.921432949991</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -33694,9 +33694,11 @@
         <v>-48926.93329561003</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>234.9</v>
+      </c>
       <c r="J1009" t="n">
         <v>234.4</v>
       </c>
@@ -34624,11 +34626,17 @@
         <v>-58407.79599561003</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>236.2</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34661,7 +34669,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34694,7 +34706,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34727,7 +34743,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34760,7 +34780,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34793,7 +34817,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34826,7 +34854,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34859,7 +34891,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34892,7 +34928,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34925,7 +34965,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34958,7 +35002,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -34991,7 +35039,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35024,7 +35076,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35057,7 +35113,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35090,7 +35150,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35123,7 +35187,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35156,7 +35224,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35189,7 +35261,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35222,7 +35298,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35251,11 +35331,17 @@
         <v>-65033.20399561003</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>236</v>
+      </c>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35284,11 +35370,17 @@
         <v>-65033.20399561003</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>236</v>
+      </c>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35317,11 +35409,17 @@
         <v>-65033.20399561003</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>236</v>
+      </c>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35354,7 +35452,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35387,7 +35489,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35420,7 +35526,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35453,7 +35563,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35486,7 +35600,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35515,11 +35633,17 @@
         <v>-63140.47129561003</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>236.1</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35552,7 +35676,11 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35585,7 +35713,11 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35618,7 +35750,11 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35647,15 +35783,15 @@
         <v>-63140.47129561003</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="J1068" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="K1068" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
+      <c r="J1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35684,17 +35820,13 @@
         <v>-63530.08259561003</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="J1069" t="n">
-        <v>236.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1069" t="n">
@@ -35725,14 +35857,10 @@
         <v>-62610.48249561003</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="J1070" t="n">
-        <v>236.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35771,9 +35899,7 @@
       <c r="I1071" t="n">
         <v>236.2</v>
       </c>
-      <c r="J1071" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35812,9 +35938,7 @@
       <c r="I1072" t="n">
         <v>236.2</v>
       </c>
-      <c r="J1072" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35853,9 +35977,7 @@
       <c r="I1073" t="n">
         <v>236.2</v>
       </c>
-      <c r="J1073" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35894,9 +36016,7 @@
       <c r="I1074" t="n">
         <v>236.2</v>
       </c>
-      <c r="J1074" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35935,9 +36055,7 @@
       <c r="I1075" t="n">
         <v>236.2</v>
       </c>
-      <c r="J1075" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35976,9 +36094,7 @@
       <c r="I1076" t="n">
         <v>236.1</v>
       </c>
-      <c r="J1076" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36017,9 +36133,7 @@
       <c r="I1077" t="n">
         <v>236.3</v>
       </c>
-      <c r="J1077" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36058,9 +36172,7 @@
       <c r="I1078" t="n">
         <v>236.3</v>
       </c>
-      <c r="J1078" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36099,9 +36211,7 @@
       <c r="I1079" t="n">
         <v>236.4</v>
       </c>
-      <c r="J1079" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36140,9 +36250,7 @@
       <c r="I1080" t="n">
         <v>236.4</v>
       </c>
-      <c r="J1080" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36181,9 +36289,7 @@
       <c r="I1081" t="n">
         <v>236.2</v>
       </c>
-      <c r="J1081" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36222,9 +36328,7 @@
       <c r="I1082" t="n">
         <v>236.2</v>
       </c>
-      <c r="J1082" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36263,9 +36367,7 @@
       <c r="I1083" t="n">
         <v>236.1</v>
       </c>
-      <c r="J1083" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36304,9 +36406,7 @@
       <c r="I1084" t="n">
         <v>236.3</v>
       </c>
-      <c r="J1084" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36345,9 +36445,7 @@
       <c r="I1085" t="n">
         <v>236.3</v>
       </c>
-      <c r="J1085" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36386,9 +36484,7 @@
       <c r="I1086" t="n">
         <v>236.4</v>
       </c>
-      <c r="J1086" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36427,9 +36523,7 @@
       <c r="I1087" t="n">
         <v>236.3</v>
       </c>
-      <c r="J1087" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36463,12 +36557,12 @@
         <v>-60867.84169561003</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36502,12 +36596,12 @@
         <v>-60647.83239561003</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>236.7</v>
+      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36541,12 +36635,12 @@
         <v>-76388.23829561003</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>237.7</v>
+      </c>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36580,12 +36674,12 @@
         <v>-78303.41459561004</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36619,12 +36713,12 @@
         <v>-77955.69459561004</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>236.9</v>
+      </c>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36658,12 +36752,12 @@
         <v>-77955.69459561004</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36697,12 +36791,12 @@
         <v>-78014.55459561004</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36736,12 +36830,12 @@
         <v>-77976.12459561005</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36775,12 +36869,12 @@
         <v>-79259.72389561005</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36814,12 +36908,12 @@
         <v>-77855.56619561005</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>237</v>
+      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36853,12 +36947,12 @@
         <v>-78359.65049561005</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36892,12 +36986,12 @@
         <v>-78359.65049561005</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36931,12 +37025,12 @@
         <v>-77839.21049561005</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36970,12 +37064,12 @@
         <v>-76502.19119561005</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37009,12 +37103,12 @@
         <v>-76502.19119561005</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37048,12 +37142,12 @@
         <v>-76502.19119561005</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37090,9 +37184,7 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37129,9 +37221,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37168,9 +37258,7 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37207,9 +37295,7 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37246,9 +37332,7 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37285,9 +37369,7 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37324,9 +37406,7 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37363,9 +37443,7 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37402,9 +37480,7 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37441,9 +37517,7 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37480,9 +37554,7 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37519,9 +37591,7 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37558,9 +37628,7 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37597,9 +37665,7 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37636,9 +37702,7 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37675,9 +37739,7 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37714,9 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37753,9 +37813,7 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37792,9 +37850,7 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37831,9 +37887,7 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37870,9 +37924,7 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37909,9 +37961,7 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37948,9 +37998,7 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37987,9 +38035,7 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38026,9 +38072,7 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38065,9 +38109,7 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38104,9 +38146,7 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38143,9 +38183,7 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38182,9 +38220,7 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38221,9 +38257,7 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38260,9 +38294,7 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38299,9 +38331,7 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38338,9 +38368,7 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38377,9 +38405,7 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38416,9 +38442,7 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38455,9 +38479,7 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38494,9 +38516,7 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38533,9 +38553,7 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38572,9 +38590,7 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38611,9 +38627,7 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38650,9 +38664,7 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38689,9 +38701,7 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38728,9 +38738,7 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38767,9 +38775,7 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38806,9 +38812,7 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38845,9 +38849,7 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38884,9 +38886,7 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38923,9 +38923,7 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38962,9 +38960,7 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39001,9 +38997,7 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39040,9 +39034,7 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39079,9 +39071,7 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39118,9 +39108,7 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39157,9 +39145,7 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39196,9 +39182,7 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39235,9 +39219,7 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39274,9 +39256,7 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39313,9 +39293,7 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39352,9 +39330,7 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39391,9 +39367,7 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39430,9 +39404,7 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39469,9 +39441,7 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39508,9 +39478,7 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39547,9 +39515,7 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39586,9 +39552,7 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39622,12 +39586,12 @@
         <v>-104755.66679561</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39661,12 +39625,12 @@
         <v>-104482.30679561</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39703,9 +39667,7 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39742,9 +39704,7 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39778,12 +39738,12 @@
         <v>-108551.65709561</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>237.6</v>
+      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39817,12 +39777,12 @@
         <v>-106309.87219561</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>237</v>
+      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39856,12 +39816,12 @@
         <v>-105125.39929561</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>238.2</v>
+      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39895,12 +39855,12 @@
         <v>-108082.21979561</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39934,12 +39894,12 @@
         <v>-108584.10229561</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39978,9 +39938,7 @@
       <c r="I1178" t="n">
         <v>236.4</v>
       </c>
-      <c r="J1178" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40019,9 +39977,7 @@
       <c r="I1179" t="n">
         <v>238.3</v>
       </c>
-      <c r="J1179" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40060,9 +40016,7 @@
       <c r="I1180" t="n">
         <v>237.3</v>
       </c>
-      <c r="J1180" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40101,9 +40055,7 @@
       <c r="I1181" t="n">
         <v>236.5</v>
       </c>
-      <c r="J1181" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40142,9 +40094,7 @@
       <c r="I1182" t="n">
         <v>237.8</v>
       </c>
-      <c r="J1182" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40183,9 +40133,7 @@
       <c r="I1183" t="n">
         <v>238.2</v>
       </c>
-      <c r="J1183" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40222,9 +40170,7 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40258,12 +40204,12 @@
         <v>-113326.41539561</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>238.9</v>
+      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40297,12 +40243,12 @@
         <v>-112381.9929956101</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40336,12 +40282,12 @@
         <v>-113861.1277956101</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>238.7</v>
+      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40375,12 +40321,12 @@
         <v>-112000.5754956101</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40414,12 +40360,12 @@
         <v>-114258.3990956101</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40458,9 +40404,7 @@
       <c r="I1190" t="n">
         <v>237.3</v>
       </c>
-      <c r="J1190" t="n">
-        <v>236.2</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40494,12 +40438,12 @@
         <v>-111612.47449561</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>238.2</v>
+      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40533,12 +40477,12 @@
         <v>-111161.73709561</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>238.9</v>
+      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40572,12 +40516,12 @@
         <v>-116023.61169561</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40611,12 +40555,12 @@
         <v>-115289.04849561</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>238</v>
+      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40650,12 +40594,12 @@
         <v>-118209.03009561</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>239.2</v>
+      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40689,12 +40633,12 @@
         <v>-117690.81419561</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40728,12 +40672,12 @@
         <v>-118373.82609561</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>238.9</v>
+      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40767,12 +40711,12 @@
         <v>-119196.38899561</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40806,12 +40750,12 @@
         <v>-118672.79089561</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>238.2</v>
+      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40845,12 +40789,12 @@
         <v>-118642.46089561</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40884,12 +40828,12 @@
         <v>-118593.51089561</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>239</v>
+      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40923,12 +40867,12 @@
         <v>-118593.51089561</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="n">
-        <v>236.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>239.7</v>
+      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
